--- a/7RMART_SUPERMARKET/src/test/resources/TESTDATA.xlsx
+++ b/7RMART_SUPERMARKET/src/test/resources/TESTDATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWAPNA\eclipse-workspace\TestNGSeleniumProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWAPNA\git\7RMart\7RMART_SUPERMARKET\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C70C20-41A5-49D0-907F-188CE7A5B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9CB11C-0A77-49C4-8BF5-0B9A0BEBCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CB688286-B8DF-4CB5-9F90-ECE3180915CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CB688286-B8DF-4CB5-9F90-ECE3180915CC}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Password</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Lux Bath Soap</t>
+  </si>
+  <si>
+    <t>lease enter weight price</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4860306E-DF6A-4115-B28C-962E54F68FD8}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -597,15 +600,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9FABD8-17FC-40CC-B99D-95F892C039BB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -613,6 +616,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
